--- a/20201027/silo-loging-w-two-sockets-2.xlsx
+++ b/20201027/silo-loging-w-two-sockets-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masa\Google ドライブ\2020\logging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masa\Documents\GitHub\experiment\20201027\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D85E66CC-DA9B-4E30-842B-ED38DE682597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95372D10-B9C5-44AE-AD54-5901A47F1FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="300" windowWidth="20088" windowHeight="14616" tabRatio="720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6264" yWindow="1596" windowWidth="20088" windowHeight="14616" tabRatio="873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transaction" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
   <si>
     <t>thread_num</t>
   </si>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>fsdax+fsdax</t>
+  </si>
+  <si>
+    <t>fsdax+fsdax</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1197,7 +1201,7 @@
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4369,6 +4373,122 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>write!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fsdax+fsdax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>write!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>write!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>84.349800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164.971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>326.221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>562.37800000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>743.44200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>951.41499999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1192.5899999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1370.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1044.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-606F-47B4-9ED8-78591828F1C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4502,7 +4622,6 @@
         <c:axId val="588964344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -27704,13 +27823,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B7D130-107D-47B2-9DCC-EA368F0A586D}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="str">
         <f>'run-numa3-0000'!A1</f>
         <v>thread_num</v>
@@ -27724,8 +27845,11 @@
       <c r="D1" t="s">
         <v>14</v>
       </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>INDEX('run-numa3-0000'!A:A,(ROW()-2)*3+3)</f>
         <v>4</v>
@@ -27742,8 +27866,12 @@
         <f>INDEX('run-numa3-1111'!G:G,(ROW()-2)*3+3)/1000000</f>
         <v>83.577200000000005</v>
       </c>
+      <c r="E2">
+        <f>INDEX('run-numa4-1133'!G:G,(ROW()-2)*3+3)/1000000</f>
+        <v>84.349800000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>INDEX('run-numa3-0000'!A:A,(ROW()-2)*3+3)</f>
         <v>8</v>
@@ -27760,8 +27888,12 @@
         <f>INDEX('run-numa3-1111'!G:G,(ROW()-2)*3+3)/1000000</f>
         <v>162.386</v>
       </c>
+      <c r="E3">
+        <f>INDEX('run-numa4-1133'!G:G,(ROW()-2)*3+3)/1000000</f>
+        <v>164.971</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <f>INDEX('run-numa3-0000'!A:A,(ROW()-2)*3+3)</f>
         <v>16</v>
@@ -27778,8 +27910,12 @@
         <f>INDEX('run-numa3-1111'!G:G,(ROW()-2)*3+3)/1000000</f>
         <v>323.791</v>
       </c>
+      <c r="E4">
+        <f>INDEX('run-numa4-1133'!G:G,(ROW()-2)*3+3)/1000000</f>
+        <v>326.221</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <f>INDEX('run-numa3-0000'!A:A,(ROW()-2)*3+3)</f>
         <v>28</v>
@@ -27796,8 +27932,12 @@
         <f>INDEX('run-numa3-1111'!G:G,(ROW()-2)*3+3)/1000000</f>
         <v>553.89800000000002</v>
       </c>
+      <c r="E5">
+        <f>INDEX('run-numa4-1133'!G:G,(ROW()-2)*3+3)/1000000</f>
+        <v>562.37800000000004</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <f>INDEX('run-numa3-0000'!A:A,(ROW()-2)*3+3)</f>
         <v>40</v>
@@ -27814,8 +27954,12 @@
         <f>INDEX('run-numa3-1111'!G:G,(ROW()-2)*3+3)/1000000</f>
         <v>734.73</v>
       </c>
+      <c r="E6">
+        <f>INDEX('run-numa4-1133'!G:G,(ROW()-2)*3+3)/1000000</f>
+        <v>743.44200000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <f>INDEX('run-numa3-0000'!A:A,(ROW()-2)*3+3)</f>
         <v>56</v>
@@ -27832,8 +27976,12 @@
         <f>INDEX('run-numa3-1111'!G:G,(ROW()-2)*3+3)/1000000</f>
         <v>890.26099999999997</v>
       </c>
+      <c r="E7">
+        <f>INDEX('run-numa4-1133'!G:G,(ROW()-2)*3+3)/1000000</f>
+        <v>951.41499999999996</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>INDEX('run-numa3-0000'!A:A,(ROW()-2)*3+3)</f>
         <v>84</v>
@@ -27850,8 +27998,12 @@
         <f>INDEX('run-numa3-1111'!G:G,(ROW()-2)*3+3)/1000000</f>
         <v>884.76900000000001</v>
       </c>
+      <c r="E8">
+        <f>INDEX('run-numa4-1133'!G:G,(ROW()-2)*3+3)/1000000</f>
+        <v>1192.5899999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <f>INDEX('run-numa3-0000'!A:A,(ROW()-2)*3+3)</f>
         <v>108</v>
@@ -27868,8 +28020,12 @@
         <f>INDEX('run-numa3-1111'!G:G,(ROW()-2)*3+3)/1000000</f>
         <v>893.245</v>
       </c>
+      <c r="E9">
+        <f>INDEX('run-numa4-1133'!G:G,(ROW()-2)*3+3)/1000000</f>
+        <v>1370.79</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <f>INDEX('run-numa3-0000'!A:A,(ROW()-2)*3+3)</f>
         <v>112</v>
@@ -27885,12 +28041,17 @@
       <c r="D10">
         <f>INDEX('run-numa3-1111'!G:G,(ROW()-2)*3+3)/1000000</f>
         <v>476.29700000000003</v>
+      </c>
+      <c r="E10">
+        <f>INDEX('run-numa4-1133'!G:G,(ROW()-2)*3+3)/1000000</f>
+        <v>1044.75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
